--- a/variabel.xlsx
+++ b/variabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\05211740000055\Documents\UiPath\sippfirst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08982661-5D0C-4196-BB3A-53A3BF92D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331E34E-7830-4E47-8A1A-775A73463897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85F66980-A895-45CE-8AB6-588555BF1FE6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Variable</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>file_link_pn_kpfs</t>
-  </si>
-  <si>
     <t>C:\ICSTAR</t>
   </si>
   <si>
@@ -59,16 +56,33 @@
   </si>
   <si>
     <t>test_sipp_parallel.xlsx</t>
+  </si>
+  <si>
+    <t>directory_kpfs</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>rafiirzam17@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,13 +105,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,9 +427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BCD498-EE34-4489-A61F-4FECEE55F001}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -430,29 +449,40 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{3E43368E-691F-49C4-8198-D3FBFDD74F0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/variabel.xlsx
+++ b/variabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\05211740000055\Documents\UiPath\sippfirst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331E34E-7830-4E47-8A1A-775A73463897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD3D4D-AB1B-48F2-BB50-B4FB77F66725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{85F66980-A895-45CE-8AB6-588555BF1FE6}"/>
+    <workbookView xWindow="912" yWindow="984" windowWidth="17280" windowHeight="9072" xr2:uid="{85F66980-A895-45CE-8AB6-588555BF1FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Variable</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>rafiirzam17@gmail.com</t>
+  </si>
+  <si>
+    <t>quick_scraping</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>file_output</t>
+  </si>
+  <si>
+    <t>output.txt</t>
+  </si>
+  <si>
+    <t>directory_tiap_PN_Output</t>
+  </si>
+  <si>
+    <t>C:\Users\05211740000055\Documents\UiPath\sippfirst\Hasil Tiap PN</t>
   </si>
 </sst>
 </file>
@@ -427,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BCD498-EE34-4489-A61F-4FECEE55F001}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,6 +495,30 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
